--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0274400907243713</v>
+        <v>0.01132367786385012</v>
       </c>
       <c r="C2">
-        <v>2.37760208268142</v>
+        <v>2.289151444524298</v>
       </c>
       <c r="D2">
-        <v>21.68154325651245</v>
+        <v>20.74398971997876</v>
       </c>
       <c r="E2">
-        <v>4.656344409138187</v>
+        <v>4.554557027854494</v>
       </c>
       <c r="F2">
-        <v>4.765837689593444</v>
+        <v>4.656905011860751</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.08608625406752984</v>
+        <v>-0.0664853343312105</v>
       </c>
       <c r="C3">
-        <v>2.508869877523086</v>
+        <v>2.410518245823468</v>
       </c>
       <c r="D3">
-        <v>19.37620674239927</v>
+        <v>18.500884502483</v>
       </c>
       <c r="E3">
-        <v>4.401841290005726</v>
+        <v>4.301265453617459</v>
       </c>
       <c r="F3">
-        <v>4.509682438290183</v>
+        <v>4.401959587781231</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5769838766522852</v>
+        <v>-0.5622320716953093</v>
       </c>
       <c r="C4">
-        <v>1.956014080418923</v>
+        <v>1.875594170520679</v>
       </c>
       <c r="D4">
-        <v>10.92103790251836</v>
+        <v>10.40438817800559</v>
       </c>
       <c r="E4">
-        <v>3.304699366435374</v>
+        <v>3.225583385684764</v>
       </c>
       <c r="F4">
-        <v>3.338472311922841</v>
+        <v>3.25464244416202</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1928168738352694</v>
+        <v>-0.1812427017839789</v>
       </c>
       <c r="C5">
-        <v>1.515708734003499</v>
+        <v>1.441856625662851</v>
       </c>
       <c r="D5">
-        <v>9.091051392007323</v>
+        <v>8.636573577577872</v>
       </c>
       <c r="E5">
-        <v>3.015137043652796</v>
+        <v>2.938804787252442</v>
       </c>
       <c r="F5">
-        <v>3.091418119912882</v>
+        <v>3.009410619098892</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.211238797138294</v>
+        <v>-0.2071371915338822</v>
       </c>
       <c r="C6">
-        <v>1.97788371174331</v>
+        <v>1.880800794843898</v>
       </c>
       <c r="D6">
-        <v>13.89329445674484</v>
+        <v>13.16300375377707</v>
       </c>
       <c r="E6">
-        <v>3.727370984587506</v>
+        <v>3.628085411587917</v>
       </c>
       <c r="F6">
-        <v>3.82926891572477</v>
+        <v>3.721423419543999</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2859487537345545</v>
+        <v>-0.2618932902003571</v>
       </c>
       <c r="C7">
-        <v>1.867613442509881</v>
+        <v>1.772026561808276</v>
       </c>
       <c r="D7">
-        <v>10.38062822100421</v>
+        <v>9.805127963275318</v>
       </c>
       <c r="E7">
-        <v>3.221898232564804</v>
+        <v>3.131314095276186</v>
       </c>
       <c r="F7">
-        <v>3.307951084424388</v>
+        <v>3.21080636400065</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2261521123230283</v>
+        <v>-0.2336496272831486</v>
       </c>
       <c r="C8">
-        <v>1.845443311263833</v>
+        <v>1.757688402756847</v>
       </c>
       <c r="D8">
-        <v>12.43399596224612</v>
+        <v>11.70993972551334</v>
       </c>
       <c r="E8">
-        <v>3.526187170620148</v>
+        <v>3.4219789195016</v>
       </c>
       <c r="F8">
-        <v>3.634332758103907</v>
+        <v>3.519063341396083</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1049500048897681</v>
+        <v>-0.110650871936715</v>
       </c>
       <c r="C9">
-        <v>2.044548877076516</v>
+        <v>1.929024814611791</v>
       </c>
       <c r="D9">
-        <v>11.09237647136208</v>
+        <v>10.40150795858265</v>
       </c>
       <c r="E9">
-        <v>3.330521951791053</v>
+        <v>3.225136889898264</v>
       </c>
       <c r="F9">
-        <v>3.445705707497541</v>
+        <v>3.328946074360039</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1794258546312875</v>
+        <v>-0.1706632301364332</v>
       </c>
       <c r="C10">
-        <v>2.306470816784399</v>
+        <v>2.15590519481267</v>
       </c>
       <c r="D10">
-        <v>16.88543557082017</v>
+        <v>15.75989337962914</v>
       </c>
       <c r="E10">
-        <v>4.109189162209519</v>
+        <v>3.969873219591419</v>
       </c>
       <c r="F10">
-        <v>4.260240035392915</v>
+        <v>4.105410294639327</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1097525143495129</v>
+        <v>-0.1306111199879883</v>
       </c>
       <c r="C11">
-        <v>2.122847625794113</v>
+        <v>1.99991372347226</v>
       </c>
       <c r="D11">
-        <v>11.67019066200462</v>
+        <v>10.84813572458541</v>
       </c>
       <c r="E11">
-        <v>3.4161660764671</v>
+        <v>3.293650820075713</v>
       </c>
       <c r="F11">
-        <v>3.553822890198449</v>
+        <v>3.415294451084287</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01132367786385012</v>
+        <v>-0.0664853343312105</v>
       </c>
       <c r="C2">
-        <v>2.289151444524298</v>
+        <v>2.410518245823468</v>
       </c>
       <c r="D2">
-        <v>20.74398971997876</v>
+        <v>18.500884502483</v>
       </c>
       <c r="E2">
-        <v>4.554557027854494</v>
+        <v>4.301265453617459</v>
       </c>
       <c r="F2">
-        <v>4.656905011860751</v>
+        <v>4.401959587781231</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0664853343312105</v>
+        <v>-0.5622320716953093</v>
       </c>
       <c r="C3">
-        <v>2.410518245823468</v>
+        <v>1.875594170520679</v>
       </c>
       <c r="D3">
-        <v>18.500884502483</v>
+        <v>10.40438817800559</v>
       </c>
       <c r="E3">
-        <v>4.301265453617459</v>
+        <v>3.225583385684764</v>
       </c>
       <c r="F3">
-        <v>4.401959587781231</v>
+        <v>3.25464244416202</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5622320716953093</v>
+        <v>-0.1812427017839789</v>
       </c>
       <c r="C4">
-        <v>1.875594170520679</v>
+        <v>1.441856625662851</v>
       </c>
       <c r="D4">
-        <v>10.40438817800559</v>
+        <v>8.636573577577872</v>
       </c>
       <c r="E4">
-        <v>3.225583385684764</v>
+        <v>2.938804787252442</v>
       </c>
       <c r="F4">
-        <v>3.25464244416202</v>
+        <v>3.009410619098892</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1812427017839789</v>
+        <v>-0.2071371915338822</v>
       </c>
       <c r="C5">
-        <v>1.441856625662851</v>
+        <v>1.880800794843898</v>
       </c>
       <c r="D5">
-        <v>8.636573577577872</v>
+        <v>13.16300375377707</v>
       </c>
       <c r="E5">
-        <v>2.938804787252442</v>
+        <v>3.628085411587917</v>
       </c>
       <c r="F5">
-        <v>3.009410619098892</v>
+        <v>3.721423419543999</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2071371915338822</v>
+        <v>-0.2618932902003571</v>
       </c>
       <c r="C6">
-        <v>1.880800794843898</v>
+        <v>1.772026561808276</v>
       </c>
       <c r="D6">
-        <v>13.16300375377707</v>
+        <v>9.805127963275318</v>
       </c>
       <c r="E6">
-        <v>3.628085411587917</v>
+        <v>3.131314095276186</v>
       </c>
       <c r="F6">
-        <v>3.721423419543999</v>
+        <v>3.21080636400065</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2618932902003571</v>
+        <v>-0.2336496272831486</v>
       </c>
       <c r="C7">
-        <v>1.772026561808276</v>
+        <v>1.757688402756847</v>
       </c>
       <c r="D7">
-        <v>9.805127963275318</v>
+        <v>11.70993972551334</v>
       </c>
       <c r="E7">
-        <v>3.131314095276186</v>
+        <v>3.4219789195016</v>
       </c>
       <c r="F7">
-        <v>3.21080636400065</v>
+        <v>3.519063341396083</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2336496272831486</v>
+        <v>-0.110650871936715</v>
       </c>
       <c r="C8">
-        <v>1.757688402756847</v>
+        <v>1.929024814611791</v>
       </c>
       <c r="D8">
-        <v>11.70993972551334</v>
+        <v>10.40150795858265</v>
       </c>
       <c r="E8">
-        <v>3.4219789195016</v>
+        <v>3.225136889898264</v>
       </c>
       <c r="F8">
-        <v>3.519063341396083</v>
+        <v>3.328946074360039</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.110650871936715</v>
+        <v>-0.1706632301364332</v>
       </c>
       <c r="C9">
-        <v>1.929024814611791</v>
+        <v>2.15590519481267</v>
       </c>
       <c r="D9">
-        <v>10.40150795858265</v>
+        <v>15.75989337962914</v>
       </c>
       <c r="E9">
-        <v>3.225136889898264</v>
+        <v>3.969873219591419</v>
       </c>
       <c r="F9">
-        <v>3.328946074360039</v>
+        <v>4.105410294639327</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1706632301364332</v>
+        <v>-0.1306111199879883</v>
       </c>
       <c r="C10">
-        <v>2.15590519481267</v>
+        <v>1.99991372347226</v>
       </c>
       <c r="D10">
-        <v>15.75989337962914</v>
+        <v>10.84813572458541</v>
       </c>
       <c r="E10">
-        <v>3.969873219591419</v>
+        <v>3.293650820075713</v>
       </c>
       <c r="F10">
-        <v>4.105410294639327</v>
+        <v>3.415294451084287</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1306111199879883</v>
+        <v>-0.1356576030215939</v>
       </c>
       <c r="C11">
-        <v>1.99991372347226</v>
+        <v>2.218579271193636</v>
       </c>
       <c r="D11">
-        <v>10.84813572458541</v>
+        <v>15.60620162443728</v>
       </c>
       <c r="E11">
-        <v>3.293650820075713</v>
+        <v>3.950468532267696</v>
       </c>
       <c r="F11">
-        <v>3.415294451084287</v>
+        <v>4.10935297329292</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0664853343312105</v>
+        <v>0.01132367786385012</v>
       </c>
       <c r="C2">
-        <v>2.410518245823468</v>
+        <v>2.289151444524298</v>
       </c>
       <c r="D2">
-        <v>18.500884502483</v>
+        <v>20.74398971997876</v>
       </c>
       <c r="E2">
-        <v>4.301265453617459</v>
+        <v>4.554557027854494</v>
       </c>
       <c r="F2">
-        <v>4.401959587781231</v>
+        <v>4.656905011860751</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.5622320716953093</v>
+        <v>-0.0664853343312105</v>
       </c>
       <c r="C3">
-        <v>1.875594170520679</v>
+        <v>2.410518245823468</v>
       </c>
       <c r="D3">
-        <v>10.40438817800559</v>
+        <v>18.500884502483</v>
       </c>
       <c r="E3">
-        <v>3.225583385684764</v>
+        <v>4.301265453617459</v>
       </c>
       <c r="F3">
-        <v>3.25464244416202</v>
+        <v>4.401959587781231</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1812427017839789</v>
+        <v>-0.5622320716953093</v>
       </c>
       <c r="C4">
-        <v>1.441856625662851</v>
+        <v>1.875594170520679</v>
       </c>
       <c r="D4">
-        <v>8.636573577577872</v>
+        <v>10.40438817800559</v>
       </c>
       <c r="E4">
-        <v>2.938804787252442</v>
+        <v>3.225583385684764</v>
       </c>
       <c r="F4">
-        <v>3.009410619098892</v>
+        <v>3.25464244416202</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2071371915338822</v>
+        <v>-0.1812427017839789</v>
       </c>
       <c r="C5">
-        <v>1.880800794843898</v>
+        <v>1.441856625662851</v>
       </c>
       <c r="D5">
-        <v>13.16300375377707</v>
+        <v>8.636573577577872</v>
       </c>
       <c r="E5">
-        <v>3.628085411587917</v>
+        <v>2.938804787252442</v>
       </c>
       <c r="F5">
-        <v>3.721423419543999</v>
+        <v>3.009410619098892</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2618932902003571</v>
+        <v>-0.2071371915338822</v>
       </c>
       <c r="C6">
-        <v>1.772026561808276</v>
+        <v>1.880800794843898</v>
       </c>
       <c r="D6">
-        <v>9.805127963275318</v>
+        <v>13.16300375377707</v>
       </c>
       <c r="E6">
-        <v>3.131314095276186</v>
+        <v>3.628085411587917</v>
       </c>
       <c r="F6">
-        <v>3.21080636400065</v>
+        <v>3.721423419543999</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2336496272831486</v>
+        <v>-0.2618932902003571</v>
       </c>
       <c r="C7">
-        <v>1.757688402756847</v>
+        <v>1.772026561808276</v>
       </c>
       <c r="D7">
-        <v>11.70993972551334</v>
+        <v>9.805127963275318</v>
       </c>
       <c r="E7">
-        <v>3.4219789195016</v>
+        <v>3.131314095276186</v>
       </c>
       <c r="F7">
-        <v>3.519063341396083</v>
+        <v>3.21080636400065</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.110650871936715</v>
+        <v>-0.2336496272831486</v>
       </c>
       <c r="C8">
-        <v>1.929024814611791</v>
+        <v>1.757688402756847</v>
       </c>
       <c r="D8">
-        <v>10.40150795858265</v>
+        <v>11.70993972551334</v>
       </c>
       <c r="E8">
-        <v>3.225136889898264</v>
+        <v>3.4219789195016</v>
       </c>
       <c r="F8">
-        <v>3.328946074360039</v>
+        <v>3.519063341396083</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1706632301364332</v>
+        <v>-0.110650871936715</v>
       </c>
       <c r="C9">
-        <v>2.15590519481267</v>
+        <v>1.929024814611791</v>
       </c>
       <c r="D9">
-        <v>15.75989337962914</v>
+        <v>10.40150795858265</v>
       </c>
       <c r="E9">
-        <v>3.969873219591419</v>
+        <v>3.225136889898264</v>
       </c>
       <c r="F9">
-        <v>4.105410294639327</v>
+        <v>3.328946074360039</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1306111199879883</v>
+        <v>-0.1706632301364332</v>
       </c>
       <c r="C10">
-        <v>1.99991372347226</v>
+        <v>2.15590519481267</v>
       </c>
       <c r="D10">
-        <v>10.84813572458541</v>
+        <v>15.75989337962914</v>
       </c>
       <c r="E10">
-        <v>3.293650820075713</v>
+        <v>3.969873219591419</v>
       </c>
       <c r="F10">
-        <v>3.415294451084287</v>
+        <v>4.105410294639327</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1356576030215939</v>
+        <v>-0.1306111199879883</v>
       </c>
       <c r="C11">
-        <v>2.218579271193636</v>
+        <v>1.99991372347226</v>
       </c>
       <c r="D11">
-        <v>15.60620162443728</v>
+        <v>10.84813572458541</v>
       </c>
       <c r="E11">
-        <v>3.950468532267696</v>
+        <v>3.293650820075713</v>
       </c>
       <c r="F11">
-        <v>4.10935297329292</v>
+        <v>3.415294451084287</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
